--- a/Backup/PFU/2021/3.xlsx
+++ b/Backup/PFU/2021/3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>S.No.</t>
   </si>
@@ -131,6 +131,36 @@
   </si>
   <si>
     <t>med-ph-20202</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>wqdwqe</t>
+  </si>
+  <si>
+    <t>qwer</t>
+  </si>
+  <si>
+    <t>xcfs</t>
+  </si>
+  <si>
+    <t>fdsf</t>
+  </si>
+  <si>
+    <t>http://192.168.43.18:3000/PFUpics/myPhoto_1616827678324.jpg</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>sdsd</t>
+  </si>
+  <si>
+    <t>dsf</t>
+  </si>
+  <si>
+    <t>dfsf</t>
   </si>
 </sst>
 </file>
@@ -508,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -688,8 +718,88 @@
         <v>39</v>
       </c>
     </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44282.512478310186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="1">
+        <v>44286</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>44282</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>